--- a/data/interim/interaction_matrices/willem_2012/phases/home_phases.xlsx
+++ b/data/interim/interaction_matrices/willem_2012/phases/home_phases.xlsx
@@ -1,44 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="physical_only" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="less_5_min" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_5_min" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="less_15_min" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_15_min" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_one_hour" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_four_hours" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="physical_only" sheetId="2" r:id="rId2"/>
+    <sheet name="less_5_min" sheetId="3" r:id="rId3"/>
+    <sheet name="more_5_min" sheetId="4" r:id="rId4"/>
+    <sheet name="less_15_min" sheetId="5" r:id="rId5"/>
+    <sheet name="more_15_min" sheetId="6" r:id="rId6"/>
+    <sheet name="more_one_hour" sheetId="7" r:id="rId7"/>
+    <sheet name="more_four_hours" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
+  <si>
+    <t>contact_[0,12)</t>
+  </si>
+  <si>
+    <t>contact_[12,18)</t>
+  </si>
+  <si>
+    <t>contact_[18,25)</t>
+  </si>
+  <si>
+    <t>contact_[25,35)</t>
+  </si>
+  <si>
+    <t>contact_[35,45)</t>
+  </si>
+  <si>
+    <t>contact_[45,55)</t>
+  </si>
+  <si>
+    <t>contact_[55,65)</t>
+  </si>
+  <si>
+    <t>contact_[65,75)</t>
+  </si>
+  <si>
+    <t>contact_[75,85)</t>
+  </si>
+  <si>
+    <t>contact_85+</t>
+  </si>
+  <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>[0, 12)</t>
+  </si>
+  <si>
+    <t>[12, 18)</t>
+  </si>
+  <si>
+    <t>[18, 25)</t>
+  </si>
+  <si>
+    <t>[25, 35)</t>
+  </si>
+  <si>
+    <t>[35, 45)</t>
+  </si>
+  <si>
+    <t>[45, 55)</t>
+  </si>
+  <si>
+    <t>[55, 65)</t>
+  </si>
+  <si>
+    <t>[65, 75)</t>
+  </si>
+  <si>
+    <t>[75, 85)</t>
+  </si>
+  <si>
+    <t>85+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,26 +124,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -360,3569 +440,3185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>1.11365288862964</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.245145408994366</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.123847940208576</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.659460856399951</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.00298489351719</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.3005841678146099</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.263316546423293</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.113975428508764</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.0563142192861094</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.00405012995456118</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.477585607637322</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.9695186155942491</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.437404762891842</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.125271872398791</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.999841577413259</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.9536198861517671</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.0632448347274371</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.17216575623615</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.0404702273353746</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0264178312784297</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.197187647384874</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.357476057092281</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.7382173699598391</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.289973913355713</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.228599554975246</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.18478330515655</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.225580503607665</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.0654364290586686</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.067898487574167</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0826311505750869</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.688476957312946</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.06713152139339849</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.190137771392008</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.6516319370545041</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.268219055462063</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.3618777959034529</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.467843362909038</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.104461711334001</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.06557908777812969</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.150472101191159</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.9716986118034409</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.497211215767317</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.139098245910603</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.248900879952474</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.7895243786645558</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.233664356177487</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.238440401682621</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.236077230947124</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.109708555464193</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.128838808312041</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.2797199980087881</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.455517689816708</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.6924771109163439</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.322566278596184</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.224446425404116</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.740151337943044</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.332538631228308</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.154360526387293</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.176155703860795</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0791971597281472</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.291354054852099</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.0359203460595948</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.156766607670057</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.4958416474116121</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.272323782517365</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.395391752954531</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.9527025241776171</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.144493381833338</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.122869617064588</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0890362357314942</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.181873688855912</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.141019103726546</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0655824014914953</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.159667082948699</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.388844136012159</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.264689966009602</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.20838366943767</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.597972581133176</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.24499063560956</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.0283376199134073</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.115342295162389</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0425479557763048</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.08734533290380299</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.128657617701141</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.23193902532415</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.387712512411125</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.227442756365737</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.314457070410436</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.456814027483002</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.257988992409693</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.0243631187961242</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.0815705931528302</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.312188432311248</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.8670008490245059</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.7999695074735649</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.5119365254656429</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.484047296442855</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.106823955118848</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.757695275652445</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1.0892947552711</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>1.03091960627648</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.175009946357099</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.09307882887196579</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.6002958838938399</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.926695130989432</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.257248612088208</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.2237227497102111</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.100119319173738</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.0453479117732374</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.00383712194015359</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.340949609933145</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.5876820861837979</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.26661536030932</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.09219125584823951</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.7407758848574499</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.6501666687309721</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.056934054895035</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.134544898017806</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.0404702273353746</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0088859478254297</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.148197824329511</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.217895678898176</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.47483144299963</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.189046316186265</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.163681340187766</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.7930006246157361</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.146839397589706</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.0463131519327192</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.0359385137402111</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0441574213071469</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.6267087418757479</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0494040613088185</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.123958892831272</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.493878144356938</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.172671765677835</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.162286164567492</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.229899241815129</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.0534363673428203</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.0408788210369407</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.0702012598735996</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.8977885690678179</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.368380438102992</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.0995968137859254</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.160235276148154</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.649266584973574</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.154683633489167</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.117492631693192</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.131946797433565</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.06552842967207929</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.0783687115689233</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.239392452983279</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.310566529952819</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.463489634854537</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.144656690089242</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.148581448934354</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.597110947354335</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.215493403094294</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.07057020270083279</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.089329521337718</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0491258673569649</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.247544376440163</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.0323360945319763</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.102045672672533</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.243657659459963</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.134188827291099</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.256223807997491</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.7012748361241229</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.08704012179071499</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.0663432484098135</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0407861092104073</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.1597631186135</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.110204266773155</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0464164650804068</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.0816761355720413</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.217330312803938</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.121010370924156</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.125526440982408</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.440806378330042</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.154548515243075</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.0124304068372384</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.09288119929662041</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0425479557763048</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0462316843696668</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.0801989156488092</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.1385361428273</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.19661113657551</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.122807343630385</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.198370330436105</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.285201405698901</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.0918735172389275</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.0230817921182742</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.0274372270458564</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.166830983676776</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.404490609429843</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.486597015421715</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.3175533811002619</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.221734507681318</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.046858742059065</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.26982596939238</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.229060141663749</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.0327282524397323</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.0105540622562937</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0138716302355382</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.0249520548724161</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.0291020990707637</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.0173049581106222</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.00845474796990011</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.00209609881309365</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.0205611365776382</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.0172053733631321</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.0486077573937004</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.0325245747468388</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.006310779832402079</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.007299249305571191</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.006244525074370171</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.0220860688270797</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.0140613673019694</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.022241427560662</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.0240435779950065</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.00556035689016549</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.0284770927988353</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.0129358145216664</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.00683913637315946</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.00527744412816901</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0261639333087003</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.0260499385983996</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.0157655296759487</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.0148896878764796</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.0199057211783416</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.0230636049932424</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.0251902381679582</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.00632997184079327</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.0202683749800149</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.0391006732808135</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.0281943122477772</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.0241721515642225</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.00338336568565371</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.0184720340202622</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.0240584015033828</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.0159393137224602</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.0166090677315626</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.0137188279105153</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.0107297630829526</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.0217564041160095</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.016103785117621</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.0155360845197318</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.0166441701725603</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.0205581589086151</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.0153105165328834</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.0259486721098542</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.0223479940971196</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.007590958475170091</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.00395250246470966</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.007147678534565341</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.00935499548829357</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.00358425152761847</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.008989711998948621</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.0266977586562872</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.0189692858962999</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.0265719881279328</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.0209785674273869</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.007020851525925921</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.008239835548997609</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0187876032524619</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.00334480184309662</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.00597873594291531</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.00685439278903032</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.009675201813756879</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.0225963586770408</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.0130166085060622</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.0101252443882655</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.023837684091127</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.00851388750944413</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.00678895997134878</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.0397639084036143</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.022684199795442</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.00869931899630531</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.015252679661883</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.0109279773790641</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.0319466316846559</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.0416485341640591</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.0192812804694532</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0988498558460332</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.225293038799454</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.135087091483548</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.0462031432274994</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.102139185088868</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.122318775228378</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.103192692748341</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>1.080924636189908</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.2345913467380723</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.1099763099730378</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.6345088015275349</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.9738827944464262</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.2832792097039877</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.2548617984533929</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.1118793296956704</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.0563142192861094</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.00405012995456118</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.4570244710596838</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.9695186155942491</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.4201993895287099</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.125271872398791</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.9512338200195586</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.9210953114049283</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.05693405489503502</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.1648665069305788</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.0404702273353746</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.02017330620405953</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.1751015785577943</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.3434146897903116</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.7159759423991771</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.2659303353607065</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.2230391980850805</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.156306212357715</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.2126446890859986</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.05859729268550914</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.06262104344599799</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.05646721726638659</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.6624270187145465</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.06713152139339849</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.1743722417160593</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.6367422491780245</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.2483133342837214</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.3388141909102105</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.4426531247410798</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.09813173949320772</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.04531071279811479</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.1113714279103455</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.9435042995556636</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.4730390642030946</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.1357148802249493</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.2304288459322118</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.765465977161173</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.2177250424550268</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.2218313339510584</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.2223584030366087</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.09897879238124041</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.1070824041960315</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.263616212891167</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.4399816052969762</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.6758329407437836</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.3020081196875689</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.2091359088712326</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.7142026658331898</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.3101906371311883</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.1467695679121229</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.1722032013960854</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.07204948119358186</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.2819990593638055</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.03233609453197633</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.1477768956711084</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.4691438887553249</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.2533544966210651</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.3688197648265982</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.9317239567502302</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.1374725303074121</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.1146297815155904</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.07024863247903231</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.1785288870128154</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.1350403677836307</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.05872800870246498</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.1499918811349421</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.3662477773351182</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.2516733575035398</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.1982584250494045</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.574134897042049</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.2364767481001159</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.0283376199134073</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.115342295162389</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0425479557763048</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.08055637293245421</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.08889370929752671</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.209254825528708</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.3790131934148196</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.212190076703854</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.3035290930313719</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.4248673957983461</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.2163404582456339</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.0243631187961242</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.06228931268337701</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.2133385764652148</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.641707810225052</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.6648824159900169</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.4657333822381435</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.3819081113539869</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.106823955118848</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.635376500424067</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.9861020625227589</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.0696283852832682</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.0153071458790072</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0243389006791594</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.0550986927691601</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.0684206012457428</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.0484445088304391</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.0264450795499889</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.005887521516421521</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.00281732514773837</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.000213008014407593</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.0298209646095668</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.0199824802379845</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.0398407520254008</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.0280696413113982</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.0668128125298128</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.075279088129489</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.006310779832402079</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.0235342509834839</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0141844070711024</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.0387517996405501</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.0325604935151409</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.07447236899400701</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.0658318814557904</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.0470589461131148</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.0917260265637849</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.025993061119789</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.0128741903318597</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.0113174147406142</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0694426936554642</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.0575230204817886</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0150421454562639</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.0431663906649147</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.0469984008109327</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.0626238519108316</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.0754691385817748</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.0800603599356722</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.020113923377855</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.0361235439918928</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.105206362773014</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.06628634556608649</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.0332253433916275</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.0286344252045665</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.0581134394786655</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.09408489351035219</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.0446368753960582</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.0551981288555452</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.06502785814574399</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.0405642739536652</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.101696396508049</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.0450818751104179</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.0359587261279027</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.0536116381740648</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.06727077332945181</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.04287597512837699</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.0633679514210831</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.06108156105961599</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.0335166445791314</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.0378163348084701</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0414695790384242</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.0292609076886101</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.00358425152761847</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.0180638129161944</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.0848516061359379</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.0630420144058939</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.0726265860040171</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.0737494138753749</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.0332619718014567</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.0315012088322229</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0473209891598927</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.00939487809276186</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.0192766497422072</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0129029094552967</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.0307436230115681</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.107107751204801</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.0574727213105471</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.0479693370642716</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.0697880994747051</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.0495580683647404</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.00418578130567053</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.00577042091461639</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0145588420809752</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.0708696822475355</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.085758472746145</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.08323242368784491</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.0583115821211294</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.06361012515601749</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.125138791953844</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.0709514361000977</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.00128132667785002</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.0437973309056502</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.262361173926409</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.60618549967017</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.6314403035252</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.268062545150954</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.257261514704238</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.0157790850360973</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.208379308867677</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.418886279272724</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.9989018554865969</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.226091547494639</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.09256746410442369</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.59195021584489</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.8979377703770909</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.250619901050767</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.233767639915474</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.101878324329729</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.0519771362049673</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.00383712194015359</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.440465393722185</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.905489651440452</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.367639621591871</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.0938387661235428</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.8810280945843001</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.8480980776984591</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.056934054895035</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.12801130720875</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.0404702273353746</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0122334242073273</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.147383641911157</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.300459376547889</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.633848501941954</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.21422825365582</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.166591969486395</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.04207220048517</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.18908524857827</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.05256223872680901</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.0476097210796977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0131884569196227</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.617995866669703</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0502869400362976</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.140470852180941</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.593599969001293</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.198670763365111</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.272735082997167</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.377019721705275</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.0843477879561455</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.0235233364750131</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.0444754837879633</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.8699282417919479</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.4381264591604029</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.101367873357669</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.184361725296584</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.6541468620010931</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.179432815448581</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.181613176343158</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.169420276317462</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.0663918081314824</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.0257211956456302</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.233223854511594</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.4051128575455371</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.6090659309744909</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.243107318992539</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.172354289231172</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.64339629787108</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.26136323342675</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.118128453598842</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.134393907194239</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.036318765348816</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.2586588298674189</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.0323360945319763</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.131404321322109</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.399582626874538</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.207421170186556</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.310763494276602</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.8390896632662909</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.108912122099311</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.0913684082323656</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0417152465716014</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.162570010946544</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.104852673400862</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0526794920361986</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.128923459937131</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.279053090818232</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.2025609597196761</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.157069530530302</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.4953659670277079</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.190037748476987</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.0241518386077368</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.106459119239318</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0425479557763048</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.061245648993595</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.0461497183598647</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.140361444031135</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.295796265854679</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.169131174244608</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.243922440156879</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.311027745884038</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.181267135394979</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.0230817921182742</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.0377732622471799</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0498272583848398</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.256262004050525</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.159704769718388</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.234767289707068</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.226785781738618</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.09104487008275031</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.532368651999385</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.6587391320350551</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.9417176473176969</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.203358454084814</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0700170288876097</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.544582365775759</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.8420615326681021</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.212248393080408</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.180842413809119</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.0537625352853473</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.0373948696490081</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.396177400428144</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.80420451162698</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.332816188158869</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.07552333002540811</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.8141579734816179</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.763744970388073</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.0451521393147824</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.08088274410777239</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.0309420864244283</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.00117464830884074</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.111479393036127</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.271999367114652</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.5529829319977609</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.178214260512912</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.148561146798609</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.8564813582971039</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.155200256411985</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.0355120777824486</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.0192427494087886</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.00264533978911938</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.568543843894491</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0404719427291828</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.11685624383264</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.5381318806697249</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.156871726432474</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.199488392162542</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.260347865547219</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.0493660724714753</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.0155415005872078</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.00646749918627682</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.815794961255462</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.4048726167887029</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.09039647925995251</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.145573216941811</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.5718478156208641</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.150009470963121</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.110799144196139</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.0772911067786367</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.0317387245274147</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.0053652790568961</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.197515792403403</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.364819724895017</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.50059258428605</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.177817564413859</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.144091679557923</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.556692225451441</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.230867440005625</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.0742182712644185</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.0791181309737241</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0101834151329156</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.200098213607237</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.0256444732049305</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.107856030632619</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.275928493994963</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.126544167155622</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.274503691396017</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.722371382829612</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.0858071994544183</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.0543835241320715</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0145861235369758</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.08579033869427702</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.06625017849296751</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.03559129641438201</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.0754547928374696</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.127306617059965</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.127265902481968</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.123748360372006</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.467683454114605</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.124751643086082</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.00562478722577961</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.0765918474462248</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0325306431788294</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.024754076462442</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.0304903973018952</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.06710004339017039</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.174136225309716</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.100668814024047</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.160124635442216</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.217671482052585</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.107405099894455</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.00362697294445751</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.00999434808723015</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.037264896556763</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.033313406890634</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.0658263778450407</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.0792977556345322</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.0212036868302925</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.315441120223352</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.24259448749752</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.7094860229202801</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.155241659026942</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0251556265450128</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.3975024832126521</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.642919379253723</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.156451656218754</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.0815247764460075</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.013456167296537</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.0157630326892616</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.302437571077302</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.530672004333598</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.182447218434761</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.0338833329694293</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.6720640341134601</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.482076360504645</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.0147684969408621</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.0326162643558691</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.00499562005949614</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.00117464830884074</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.040052170496737</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.14910791515464</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.169978692710611</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.123051669330163</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.0723027991621269</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.383645951807598</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.0786709647861913</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.0102859023560722</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0023061936623092</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.414992485923396</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0181576250802398</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.08068577584012709</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.373898240015063</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.121027376857473</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.06669067628383921</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.0923940731093485</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.0120376144868123</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.0005337127438672571</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.622864683566307</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.334210722002137</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.0439948036599088</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.112310516291508</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.440720133948904</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.096483778083519</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.0385869684505036</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.0221434609067011</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.0136369485261232</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.00292292853090309</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.145592022640968</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.230274466001828</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.224231755432588</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.0594459331560651</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.0926775459235243</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.419433757437332</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.192167019922388</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.0285395358382113</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.0320999658815486</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.005963912138445379</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.09020539920902609</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.0083878710914821</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.0546721905236612</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.09792343560619381</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.0440703384584394</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.228488505490346</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.578298072688381</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.0625637993006834</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.0193428064667293</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.004341315587270971</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.0214723718621095</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.0267156283974605</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.010308847651412</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.0183991891978966</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.0364726191087599</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.0489382159269953</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.090227482441209</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.3398782638208641</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.0748742392928286</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.000271922142118225</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.0322857067388603</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.00525209358487769</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.0288303909951395</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.0706508966072512</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.0358052814336461</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.0961046281571184</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.183976885133804</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.06613992838854731</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.00362697294445751</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.00871302140938013</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.00307518402684005</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.0181486752934244</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.0385511862902451</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.0236016499996801</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.00102506134228002</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.194248253787553</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.109974160472263</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>